--- a/database.xlsx
+++ b/database.xlsx
@@ -70,10 +70,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,11 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,7 +395,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="F8" activeCellId="1" sqref="B9 F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,7 +478,7 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/database.xlsx
+++ b/database.xlsx
@@ -2,9 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Zalo File\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,51 +24,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
-  <si>
-    <t>quản lí nhân sự</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+  <si>
+    <t>QUẢN LÝ TIỀN LƯƠNG</t>
+  </si>
+  <si>
+    <t>Chấm công</t>
+  </si>
+  <si>
+    <t>Hồ sơ nhân viên</t>
+  </si>
+  <si>
+    <t>Tính lương</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>nsid</t>
-  </si>
-  <si>
-    <t>ten</t>
-  </si>
-  <si>
-    <t>tuoi</t>
-  </si>
-  <si>
-    <t>dia chi</t>
-  </si>
-  <si>
-    <t>so dien thoai</t>
-  </si>
-  <si>
-    <t>gioi tinh</t>
-  </si>
-  <si>
-    <t>chuc vu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quan li luong </t>
-  </si>
-  <si>
-    <t>no le</t>
-  </si>
-  <si>
-    <t>quan li ho so</t>
-  </si>
-  <si>
-    <t>hsid</t>
-  </si>
-  <si>
-    <t>cap nhat</t>
-  </si>
-  <si>
-    <t>luu tru</t>
+    <t>tên</t>
+  </si>
+  <si>
+    <t>tuổi</t>
+  </si>
+  <si>
+    <t>địa chỉ</t>
+  </si>
+  <si>
+    <t>giới tính</t>
+  </si>
+  <si>
+    <t>ngày làm</t>
+  </si>
+  <si>
+    <t>ngày làm việc</t>
+  </si>
+  <si>
+    <t>phụ cấp</t>
+  </si>
+  <si>
+    <t>lương cơ bản</t>
+  </si>
+  <si>
+    <t>Danh sách lương</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>nhiều</t>
+  </si>
+  <si>
+    <t>cid</t>
+  </si>
+  <si>
+    <t>nid</t>
+  </si>
+  <si>
+    <t>dienthoai</t>
+  </si>
+  <si>
+    <t>số tk</t>
+  </si>
+  <si>
+    <t>lương ngày công</t>
+  </si>
+  <si>
+    <t>luong thuc linh = ngay lam x luong ngay cong + luong co ban + phu cap</t>
+  </si>
+  <si>
+    <t>lam = code (hien thi + bang nhan vien)</t>
   </si>
 </sst>
 </file>
@@ -79,22 +108,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -102,16 +137,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,99 +447,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" activeCellId="1" sqref="B9 F8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="5" customWidth="1"/>
+    <col min="5" max="6" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="13" max="13" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+    </row>
+    <row r="5" spans="1:31" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13"/>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A1:AE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Zalo File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\php\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19092" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,82 +24,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
-  <si>
-    <t>QUẢN LÝ TIỀN LƯƠNG</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>họ tên</t>
+  </si>
+  <si>
+    <t>ngày sinh</t>
+  </si>
+  <si>
+    <t>địa chỉ</t>
+  </si>
+  <si>
+    <t>số điện thoại</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Phòng ban</t>
+  </si>
+  <si>
+    <t>Tên phòng</t>
   </si>
   <si>
     <t>Chấm công</t>
   </si>
   <si>
-    <t>Hồ sơ nhân viên</t>
-  </si>
-  <si>
-    <t>Tính lương</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>tên</t>
-  </si>
-  <si>
-    <t>tuổi</t>
-  </si>
-  <si>
-    <t>địa chỉ</t>
-  </si>
-  <si>
-    <t>giới tính</t>
-  </si>
-  <si>
-    <t>ngày làm</t>
-  </si>
-  <si>
-    <t>ngày làm việc</t>
-  </si>
-  <si>
-    <t>phụ cấp</t>
-  </si>
-  <si>
-    <t>lương cơ bản</t>
-  </si>
-  <si>
-    <t>Danh sách lương</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>Lương</t>
+  </si>
+  <si>
+    <t>Lương cơ bản</t>
+  </si>
+  <si>
+    <t>//Lương thực nhận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phụ cấp </t>
+  </si>
+  <si>
+    <t>Số tiền</t>
   </si>
   <si>
     <t>nhiều</t>
   </si>
   <si>
+    <t>Ngày áp dụng</t>
+  </si>
+  <si>
+    <t>Hệ số lương</t>
+  </si>
+  <si>
+    <t>Bậc lương</t>
+  </si>
+  <si>
+    <t>lương thực nhận = tổng lương * hệ số lương</t>
+  </si>
+  <si>
+    <t>cvid</t>
+  </si>
+  <si>
+    <t>Chức vụ</t>
+  </si>
+  <si>
+    <t>Lương chức vụ</t>
+  </si>
+  <si>
+    <t>nid</t>
+  </si>
+  <si>
     <t>cid</t>
   </si>
   <si>
-    <t>nid</t>
-  </si>
-  <si>
-    <t>dienthoai</t>
-  </si>
-  <si>
-    <t>số tk</t>
-  </si>
-  <si>
-    <t>lương ngày công</t>
-  </si>
-  <si>
-    <t>luong thuc linh = ngay lam x luong ngay cong + luong co ban + phu cap</t>
-  </si>
-  <si>
-    <t>lam = code (hien thi + bang nhan vien)</t>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>pcid</t>
+  </si>
+  <si>
+    <t>hsid</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>orderdetail</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>pbid</t>
+  </si>
+  <si>
+    <t>Hệ số lương từng nhân viên</t>
+  </si>
+  <si>
+    <t>Lương từng nhân viên</t>
+  </si>
+  <si>
+    <t>Chức vụ từng nhân viên</t>
+  </si>
+  <si>
+    <t>bậc lương</t>
+  </si>
+  <si>
+    <t>gioitinh</t>
+  </si>
+  <si>
+    <t>Số ngày làm việc</t>
+  </si>
+  <si>
+    <t>Lương ngày công</t>
+  </si>
+  <si>
+    <t>tổng lương = lương chức vụ + lương cơ bản + phụ cấp + tiền làm thêm giờ + (lương ngày công * số ngày làm)</t>
+  </si>
+  <si>
+    <t>luong ngay cong</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,29 +164,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -152,21 +196,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,169 +575,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="5" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="13" max="13" width="23" customWidth="1"/>
+    <col min="1" max="1" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="17.77734375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="9.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="20.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" style="1" customWidth="1"/>
+    <col min="14" max="15" width="8.88671875" style="1"/>
+    <col min="16" max="17" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-    </row>
-    <row r="5" spans="1:31" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="L9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="G12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3" t="s">
+      <c r="L12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="G13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="G14" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="9">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+      <c r="P20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G26" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G27" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13"/>
-      <c r="H13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" t="s">
-        <v>11</v>
+      <c r="E49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G50" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:AE1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>